--- a/Oil price information/2554.xlsx
+++ b/Oil price information/2554.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniejuu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OVERFLOW-PSIT\Oil price information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BD0C6B-CAC1-474C-B43B-46349101759C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F385D075-6C9A-4A4D-A9ED-9A40946DE85A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="920" windowWidth="22040" windowHeight="14420" activeTab="1" xr2:uid="{4AE04AE7-66B0-1741-989E-5B1696ED2368}"/>
+    <workbookView xWindow="4140" yWindow="924" windowWidth="22044" windowHeight="14424" activeTab="1" xr2:uid="{4AE04AE7-66B0-1741-989E-5B1696ED2368}"/>
   </bookViews>
   <sheets>
     <sheet name="ราคาน้ำมัน" sheetId="1" r:id="rId1"/>
     <sheet name="ค่าเฉลี่ยราคาน้ำมันแต่ละเดือน" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,20 +93,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -693,18 +693,18 @@
       <selection activeCell="B373" sqref="B373"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -724,7 +724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>238871</v>
       </c>
@@ -744,7 +744,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>238872</v>
       </c>
@@ -764,7 +764,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>238873</v>
       </c>
@@ -784,7 +784,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>238874</v>
       </c>
@@ -804,7 +804,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>238875</v>
       </c>
@@ -824,7 +824,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>238876</v>
       </c>
@@ -844,7 +844,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>238877</v>
       </c>
@@ -864,7 +864,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>238878</v>
       </c>
@@ -884,7 +884,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>238879</v>
       </c>
@@ -904,7 +904,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>238880</v>
       </c>
@@ -924,7 +924,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>238881</v>
       </c>
@@ -944,7 +944,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>238882</v>
       </c>
@@ -964,7 +964,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>238883</v>
       </c>
@@ -984,7 +984,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>238884</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>238885</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>238886</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>238887</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>238888</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>238889</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>238890</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>238891</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>238892</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>238893</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>238894</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>238895</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>238896</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>238897</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>238898</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>238899</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>238900</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>238901</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>238902</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>238903</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>238904</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>238905</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>238906</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>238907</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>238908</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>238909</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>238910</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>238911</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>238912</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>238913</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>238914</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>238915</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>238916</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>238917</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>238918</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>238919</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>238920</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>238921</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>238922</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>238923</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>238924</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>238925</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>238926</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>238927</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>238928</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="14">
         <v>238929</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>238930</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>238931</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>238932</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>238933</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>238934</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>238935</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>238936</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>238937</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>238938</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>238939</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>238940</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>238941</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>238942</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>238943</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>238944</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>238945</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>238946</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>238947</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>238948</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>238949</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
         <v>238950</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>238951</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>238952</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>238953</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <v>238954</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>238955</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
         <v>238956</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>238957</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
         <v>238958</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>238959</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="14">
         <v>238960</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>238961</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <v>238962</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <v>238963</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>238964</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
         <v>238965</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
         <v>238966</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>238967</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
         <v>238968</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>238969</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
         <v>238970</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <v>238971</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <v>238972</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>238973</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
         <v>238974</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <v>238975</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
         <v>238976</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>238977</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>238978</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>238979</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
         <v>238980</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
         <v>238981</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
         <v>238982</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
         <v>238983</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="11">
         <v>238984</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
         <v>238985</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
         <v>238986</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <v>238987</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
         <v>238988</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <v>238989</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="14">
         <v>238990</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>238991</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A123" s="11">
         <v>238992</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A124" s="11">
         <v>238993</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A125" s="11">
         <v>238994</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
         <v>238995</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
         <v>238996</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A128" s="11">
         <v>238997</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A129" s="11">
         <v>238998</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A130" s="11">
         <v>238999</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A131" s="11">
         <v>239000</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A132" s="11">
         <v>239001</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A133" s="11">
         <v>239002</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
         <v>239003</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
         <v>239004</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
         <v>239005</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A137" s="11">
         <v>239006</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A138" s="11">
         <v>239007</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A139" s="11">
         <v>239008</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A140" s="11">
         <v>239009</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A141" s="11">
         <v>239010</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
         <v>239011</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A143" s="11">
         <v>239012</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A144" s="11">
         <v>239013</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A145" s="11">
         <v>239014</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A146" s="11">
         <v>239015</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A147" s="11">
         <v>239016</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A148" s="11">
         <v>239017</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A149" s="11">
         <v>239018</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A150" s="11">
         <v>239019</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A151" s="11">
         <v>239020</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
         <v>239021</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>239022</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A154" s="11">
         <v>239023</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A155" s="11">
         <v>239024</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A156" s="11">
         <v>239025</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A157" s="11">
         <v>239026</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A158" s="11">
         <v>239027</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A159" s="11">
         <v>239028</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
         <v>239029</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A161" s="11">
         <v>239030</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A162" s="11">
         <v>239031</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A163" s="11">
         <v>239032</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A164" s="11">
         <v>239033</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A165" s="11">
         <v>239034</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A166" s="11">
         <v>239035</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A167" s="11">
         <v>239036</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A168" s="11">
         <v>239037</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A169" s="11">
         <v>239038</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A170" s="11">
         <v>239039</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A171" s="11">
         <v>239040</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A172" s="11">
         <v>239041</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A173" s="11">
         <v>239042</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A174" s="11">
         <v>239043</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A175" s="11">
         <v>239044</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A176" s="11">
         <v>239045</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A177" s="11">
         <v>239046</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A178" s="11">
         <v>239047</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A179" s="11">
         <v>239048</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A180" s="11">
         <v>239049</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A181" s="11">
         <v>239050</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="14">
         <v>239051</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>239052</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A184" s="11">
         <v>239053</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
         <v>239054</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A186" s="11">
         <v>239055</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A187" s="11">
         <v>239056</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A188" s="11">
         <v>239057</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A189" s="11">
         <v>239058</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A190" s="11">
         <v>239059</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A191" s="11">
         <v>239060</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A192" s="11">
         <v>239061</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A193" s="11">
         <v>239062</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A194" s="11">
         <v>239063</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A195" s="11">
         <v>239064</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A196" s="11">
         <v>239065</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A197" s="11">
         <v>239066</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A198" s="11">
         <v>239067</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A199" s="11">
         <v>239068</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A200" s="11">
         <v>239069</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A201" s="11">
         <v>239070</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A202" s="11">
         <v>239071</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A203" s="11">
         <v>239072</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A204" s="11">
         <v>239073</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A205" s="11">
         <v>239074</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A206" s="11">
         <v>239075</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A207" s="11">
         <v>239076</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A208" s="11">
         <v>239077</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A209" s="11">
         <v>239078</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A210" s="11">
         <v>239079</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A211" s="11">
         <v>239080</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A212" s="11">
         <v>239081</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="14">
         <v>239082</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
         <v>239083</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A215" s="11">
         <v>239084</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A216" s="11">
         <v>239085</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A217" s="11">
         <v>239086</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A218" s="11">
         <v>239087</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A219" s="11">
         <v>239088</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A220" s="11">
         <v>239089</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A221" s="11">
         <v>239090</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A222" s="11">
         <v>239091</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A223" s="11">
         <v>239092</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A224" s="11">
         <v>239093</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A225" s="11">
         <v>239094</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A226" s="11">
         <v>239095</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A227" s="11">
         <v>239096</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A228" s="11">
         <v>239097</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A229" s="11">
         <v>239098</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A230" s="11">
         <v>239099</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A231" s="11">
         <v>239100</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A232" s="11">
         <v>239101</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A233" s="11">
         <v>239102</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A234" s="11">
         <v>239103</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A235" s="11">
         <v>239104</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A236" s="11">
         <v>239105</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A237" s="11">
         <v>239106</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A238" s="11">
         <v>239107</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A239" s="11">
         <v>239108</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A240" s="11">
         <v>239109</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A241" s="11">
         <v>239110</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A242" s="11">
         <v>239111</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A243" s="11">
         <v>239112</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="14">
         <v>239113</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>239114</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A246" s="11">
         <v>239115</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>27.59</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A247" s="11">
         <v>239116</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>27.59</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A248" s="11">
         <v>239117</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>27.59</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A249" s="11">
         <v>239118</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A250" s="11">
         <v>239119</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A251" s="11">
         <v>239120</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A252" s="11">
         <v>239121</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A253" s="11">
         <v>239122</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A254" s="11">
         <v>239123</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A255" s="11">
         <v>239124</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A256" s="11">
         <v>239125</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A257" s="11">
         <v>239126</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A258" s="11">
         <v>239127</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A259" s="11">
         <v>239128</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A260" s="11">
         <v>239129</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A261" s="11">
         <v>239130</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A262" s="11">
         <v>239131</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A263" s="11">
         <v>239132</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A264" s="11">
         <v>239133</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A265" s="11">
         <v>239134</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A266" s="11">
         <v>239135</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A267" s="11">
         <v>239136</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A268" s="11">
         <v>239137</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A269" s="11">
         <v>239138</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A270" s="11">
         <v>239139</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A271" s="11">
         <v>239140</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A272" s="11">
         <v>239141</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A273" s="11">
         <v>239142</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="14">
         <v>239143</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>239144</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A276" s="11">
         <v>239145</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A277" s="11">
         <v>239146</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A278" s="11">
         <v>239147</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A279" s="11">
         <v>239148</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A280" s="11">
         <v>239149</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A281" s="11">
         <v>239150</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A282" s="11">
         <v>239151</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A283" s="11">
         <v>239152</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A284" s="11">
         <v>239153</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A285" s="11">
         <v>239154</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A286" s="11">
         <v>239155</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A287" s="11">
         <v>239156</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A288" s="11">
         <v>239157</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A289" s="11">
         <v>239158</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>27.49</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A290" s="11">
         <v>239159</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A291" s="11">
         <v>239160</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A292" s="11">
         <v>239161</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A293" s="11">
         <v>239162</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A294" s="11">
         <v>239163</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A295" s="11">
         <v>239164</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A296" s="11">
         <v>239165</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A297" s="11">
         <v>239166</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A298" s="11">
         <v>239167</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A299" s="11">
         <v>239168</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A300" s="11">
         <v>239169</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A301" s="11">
         <v>239170</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A302" s="11">
         <v>239171</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A303" s="11">
         <v>239172</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A304" s="11">
         <v>239173</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="14">
         <v>239174</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A306" s="8">
         <v>239175</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A307" s="11">
         <v>239176</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A308" s="11">
         <v>239177</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A309" s="11">
         <v>239178</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A310" s="11">
         <v>239179</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A311" s="11">
         <v>239180</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A312" s="11">
         <v>239181</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A313" s="11">
         <v>239182</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A314" s="11">
         <v>239183</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A315" s="11">
         <v>239184</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A316" s="11">
         <v>239185</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A317" s="11">
         <v>239186</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A318" s="11">
         <v>239187</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A319" s="11">
         <v>239188</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A320" s="11">
         <v>239189</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A321" s="11">
         <v>239190</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A322" s="11">
         <v>239191</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A323" s="11">
         <v>239192</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A324" s="11">
         <v>239193</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A325" s="11">
         <v>239194</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A326" s="11">
         <v>239195</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A327" s="11">
         <v>239196</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A328" s="11">
         <v>239197</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A329" s="11">
         <v>239198</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A330" s="11">
         <v>239199</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A331" s="11">
         <v>239200</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A332" s="11">
         <v>239201</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A333" s="11">
         <v>239202</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A334" s="11">
         <v>239203</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="14">
         <v>239204</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A336" s="8">
         <v>239205</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A337" s="11">
         <v>239206</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A338" s="11">
         <v>239207</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A339" s="11">
         <v>239208</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A340" s="11">
         <v>239209</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A341" s="11">
         <v>239210</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A342" s="11">
         <v>239211</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A343" s="11">
         <v>239212</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A344" s="11">
         <v>239213</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A345" s="11">
         <v>239214</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A346" s="11">
         <v>239215</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A347" s="11">
         <v>239216</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A348" s="11">
         <v>239217</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A349" s="11">
         <v>239218</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A350" s="11">
         <v>239219</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A351" s="11">
         <v>239220</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>29.19</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A352" s="11">
         <v>239221</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A353" s="11">
         <v>239222</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A354" s="11">
         <v>239223</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A355" s="11">
         <v>239224</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A356" s="11">
         <v>239225</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A357" s="11">
         <v>239226</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A358" s="11">
         <v>239227</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A359" s="11">
         <v>239228</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A360" s="11">
         <v>239229</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A361" s="11">
         <v>239230</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A362" s="11">
         <v>239231</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A363" s="11">
         <v>239232</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A364" s="11">
         <v>239233</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A365" s="11">
         <v>239234</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="14">
         <v>239235</v>
       </c>
@@ -8024,97 +8024,97 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
     </row>
-    <row r="368" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
     </row>
-    <row r="369" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
     </row>
-    <row r="370" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A370" s="17"/>
     </row>
-    <row r="371" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A371" s="17"/>
     </row>
-    <row r="372" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A372" s="17"/>
     </row>
-    <row r="373" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A373" s="17"/>
     </row>
-    <row r="374" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A374" s="17"/>
     </row>
-    <row r="375" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A375" s="17"/>
     </row>
-    <row r="376" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A376" s="17"/>
     </row>
-    <row r="377" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A377" s="17"/>
     </row>
-    <row r="378" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A378" s="17"/>
     </row>
-    <row r="379" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A379" s="17"/>
     </row>
-    <row r="380" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A380" s="17"/>
     </row>
-    <row r="381" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A381" s="17"/>
     </row>
-    <row r="382" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A382" s="17"/>
     </row>
-    <row r="383" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A383" s="17"/>
     </row>
-    <row r="384" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A384" s="17"/>
     </row>
-    <row r="385" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A385" s="17"/>
     </row>
-    <row r="386" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A386" s="17"/>
     </row>
-    <row r="387" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A387" s="17"/>
     </row>
-    <row r="388" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A388" s="17"/>
     </row>
-    <row r="389" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A389" s="17"/>
     </row>
-    <row r="390" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A390" s="17"/>
     </row>
-    <row r="391" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A391" s="17"/>
     </row>
-    <row r="392" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
     </row>
-    <row r="393" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
     </row>
-    <row r="394" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
     </row>
-    <row r="395" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A395" s="17"/>
     </row>
-    <row r="396" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A396" s="17"/>
     </row>
-    <row r="397" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A397" s="17"/>
     </row>
   </sheetData>
@@ -8127,16 +8127,16 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="6" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" customWidth="1"/>
+    <col min="2" max="6" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>9</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>29.964193548387101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>11</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>12</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>13</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>29.990000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>29.50612903225807</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>15</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>27.986666666666672</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>16</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>27.828709677419361</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>17</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>28.880000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
